--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
         <v>10000</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
       </c>
       <c r="G3">
         <f>G2*2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G22" si="3">G3*2</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -454,14 +454,6 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -691,6 +683,10 @@
       <c r="B24">
         <f>SUM(B2:B22)</f>
         <v>105000</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C2:C22)</f>
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
